--- a/biology/Médecine/Maladie_de_Farber/Maladie_de_Farber.xlsx
+++ b/biology/Médecine/Maladie_de_Farber/Maladie_de_Farber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La maladie de Farber (appelée aussi lipogranulomatose de Farber ou déficit en céramidase) désigne un groupe de désordres récessifs autosomiques rares qui provoquent une accumulation de lipides dans les articulations, les tissus et le système nerveux central.
@@ -517,7 +529,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2012, on recense un 9e cas au monde.
 </t>
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Farber disease » (voir la liste des auteurs).</t>
         </is>
